--- a/Decision Analytics/02_Marketing Campaign.xlsx
+++ b/Decision Analytics/02_Marketing Campaign.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F02159F-B4A9-4366-843B-E7E00A5224F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A03B77-C58A-4444-AEAA-5493BC33CADF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63285" yWindow="3570" windowWidth="43200" windowHeight="23535" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Resources" sheetId="2" r:id="rId1"/>
@@ -69,6 +69,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -156,7 +157,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -374,15 +375,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -404,6 +405,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>570639</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{593B5F9F-0611-44AC-9CB8-CEA98DD53E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17325975" y="257175"/>
+          <a:ext cx="6885714" cy="3314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,7 +722,7 @@
   <dimension ref="B2:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="L11" sqref="B1:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,7 +873,7 @@
   <dimension ref="B2:O12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,5 +1118,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>